--- a/data/kampftechnik.xlsx
+++ b/data/kampftechnik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRH\Documents\GitHub\srh_proj_dsa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2142AAE-FAF1-41F7-A2B6-160DCE4DA0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44BDA7B-D731-403A-8F12-A6047BC46440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -176,9 +176,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,13 +500,13 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3">
         <v>6</v>
       </c>
     </row>
@@ -523,13 +520,13 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
         <v>6</v>
       </c>
     </row>
@@ -543,13 +540,13 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
         <v>7</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>6</v>
       </c>
     </row>
@@ -563,13 +560,13 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
         <v>7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>6</v>
       </c>
     </row>
@@ -583,13 +580,13 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
         <v>6</v>
       </c>
     </row>
@@ -603,13 +600,13 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
         <v>6</v>
       </c>
     </row>
@@ -623,13 +620,13 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
         <v>6</v>
       </c>
     </row>
@@ -643,13 +640,13 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>6</v>
       </c>
     </row>
@@ -663,13 +660,13 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
         <v>6</v>
       </c>
     </row>
@@ -683,13 +680,13 @@
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
         <v>6</v>
       </c>
     </row>
@@ -703,13 +700,13 @@
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>7</v>
       </c>
     </row>
@@ -723,13 +720,13 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
         <v>6</v>
       </c>
     </row>
@@ -743,13 +740,13 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
         <v>6</v>
       </c>
     </row>
@@ -763,13 +760,13 @@
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
         <v>6</v>
       </c>
     </row>
